--- a/management/organisation.xlsx
+++ b/management/organisation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseen\Desktop\hometrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseen\Desktop\hometrics\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C55565E-7D67-460E-8E65-80D83CBC4B44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C66645-1FC6-4FCC-A38B-5C47EFB09B78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -283,6 +283,27 @@
   </si>
   <si>
     <t>ER Diagram, compiling meeting notes across stage 2</t>
+  </si>
+  <si>
+    <t>Fix database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix blank space </t>
+  </si>
+  <si>
+    <t>Migrate Node.js server to Heroku</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit tests for energy and user. </t>
+  </si>
+  <si>
+    <t>Refactor frontend styling</t>
+  </si>
+  <si>
+    <t>Migrate database to Heroku PostgreSQL &amp; temperature control backend</t>
   </si>
 </sst>
 </file>
@@ -766,13 +787,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -818,7 +840,29 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1086,17 +1130,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{843EC594-8B61-439A-91A9-B0D87B29EFB0}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{843EC594-8B61-439A-91A9-B0D87B29EFB0}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0" dataDxfId="37">
   <autoFilter ref="A1:H7" xr:uid="{0A008C55-1AFE-469E-9B1B-59ECCCBA57E2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5BDF2CDB-488A-4557-A2F0-16F3BBD2D877}" name="Name" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{804056EB-751D-4FEC-BF8B-AE937D7F5015}" name="Week ending date" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{C6420F38-B6AD-4AF7-845D-1AC7B214087C}" name="Objective" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{5BDF2CDB-488A-4557-A2F0-16F3BBD2D877}" name="Name" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{804056EB-751D-4FEC-BF8B-AE937D7F5015}" name="Week ending date" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{C6420F38-B6AD-4AF7-845D-1AC7B214087C}" name="Objective" dataDxfId="34"/>
     <tableColumn id="9" xr3:uid="{7C3A71D2-7824-43E4-9BC3-4640C1163F66}" name="Satisfactory Progress" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{21687B5E-C096-42B5-B358-FF6C453ED4A0}" name="Progress" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{B885D38E-90CB-4675-9A13-6C8DD7B84851}" name="Deliverables" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{1EE46279-20F5-436E-A029-B70FEDE1349C}" name="Dependencies" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{B04E38F6-8793-49E9-A252-04A2A1A35EDC}" name="Hours" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{21687B5E-C096-42B5-B358-FF6C453ED4A0}" name="Progress" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{B885D38E-90CB-4675-9A13-6C8DD7B84851}" name="Deliverables" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{1EE46279-20F5-436E-A029-B70FEDE1349C}" name="Dependencies" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{B04E38F6-8793-49E9-A252-04A2A1A35EDC}" name="Hours" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1107,9 +1151,9 @@
   <autoFilter ref="A73:H79" xr:uid="{D8F26B56-D129-42DB-B906-ECC3FD9D98AC}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E7958848-6E54-42D8-8015-31182E5D7B27}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{E7CE1CB3-CCE5-4077-9B08-488BCB1D9EF4}" name="Week ending date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E7CE1CB3-CCE5-4077-9B08-488BCB1D9EF4}" name="Week ending date" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{4D9FAB89-789D-4671-A910-86A17409EA96}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{475CFC22-1905-4BBA-9844-372E63A07AFE}" name="Satisfactory Progress" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{475CFC22-1905-4BBA-9844-372E63A07AFE}" name="Satisfactory Progress" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{DB346AA5-986D-451A-B8D9-8A3AD26B046C}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{AA7F919D-2842-4ADE-A599-6E4452C1E440}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{D70A771E-6948-4BBD-9EE8-FC159BA62161}" name="Dependencies"/>
@@ -1124,15 +1168,49 @@
   <autoFilter ref="A81:H87" xr:uid="{15E8E00F-0F44-4534-AAF0-D8548D329B9F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B103AC18-C508-429B-A263-B7B31A783B0F}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{FA545805-1077-4FF3-BC3A-C6CBA99D35D5}" name="Week ending date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FA545805-1077-4FF3-BC3A-C6CBA99D35D5}" name="Week ending date" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{DC87C481-39A1-4D17-9674-D072F67C35E9}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{55757F20-3C60-45D1-830A-12DCAA6EA793}" name="Satisfactory Progress" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{55757F20-3C60-45D1-830A-12DCAA6EA793}" name="Satisfactory Progress" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{E351D832-0001-4863-910F-4BB23F082B12}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{83A49415-8729-4623-A4D2-03EDB218FB0E}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{2B78A1B0-88DC-4B9E-B068-3BB6976D9311}" name="Dependencies"/>
     <tableColumn id="7" xr3:uid="{14F08A17-EB9D-493D-8B10-C5342EA6133C}" name="Hours"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B80BBF3E-070A-48AA-9E1A-830478DA77BB}" name="Table32768910111213" displayName="Table32768910111213" ref="A89:H95" totalsRowShown="0">
+  <autoFilter ref="A89:H95" xr:uid="{2ECDB29E-3D42-4AD4-87A9-8823F17D02AD}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0B3E0BF7-204D-4FED-820B-A1C91D9E6F73}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{45E346E3-AF50-4000-B5EF-A171F59A05E7}" name="Week ending date" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DC34F243-8204-415E-B7F8-4802E219F8D1}" name="Objective"/>
+    <tableColumn id="8" xr3:uid="{049E9916-4A23-4061-B56D-3ED23F749CBB}" name="Satisfactory Progress" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0C233A8F-B9B1-43A5-A3A0-0C19F6236C1E}" name="Progress"/>
+    <tableColumn id="5" xr3:uid="{FAB75192-B753-42D9-AD12-AEAFCB43131D}" name="Deliverables"/>
+    <tableColumn id="6" xr3:uid="{47BCB8E7-4CBF-49DD-A2D1-88919DA0EA1C}" name="Dependencies"/>
+    <tableColumn id="7" xr3:uid="{1C309041-DF41-4327-A809-CE55E865CB23}" name="Hours"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B7182F83-8658-4074-A0B7-FB87196E4B72}" name="Table3276891011121314" displayName="Table3276891011121314" ref="A97:H103" totalsRowShown="0">
+  <autoFilter ref="A97:H103" xr:uid="{A98912C6-4862-4588-B977-85807101FA59}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3948D17F-1168-4CF6-923C-2C77219C37D3}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{12C76E18-2BBB-49A3-BEC4-42902DE30713}" name="Week ending date" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E960D0C1-0514-4352-9DD5-7B303BFB2219}" name="Objective"/>
+    <tableColumn id="8" xr3:uid="{5B33989F-43AD-4C48-9BD7-47CFE84BC06D}" name="Satisfactory Progress" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{9F4A9C8D-999D-43C2-B5AE-F4D51F04346A}" name="Progress"/>
+    <tableColumn id="5" xr3:uid="{DB987D03-A94E-450E-9E75-384DA948ED82}" name="Deliverables"/>
+    <tableColumn id="6" xr3:uid="{ED65F018-A973-4B37-87D3-702B6075CF4D}" name="Dependencies"/>
+    <tableColumn id="7" xr3:uid="{A4D0A9B2-1AB5-404A-B5B0-77D9A5C808E4}" name="Hours"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1141,7 +1219,7 @@
   <autoFilter ref="A9:H15" xr:uid="{9B15872F-D7B6-401E-831C-28C7BB633115}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C13B2CF4-3F76-4D51-B756-D111A72296FB}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{957E14F0-6710-4907-A5C5-D6E5AC31AA5D}" name="Week ending date" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{957E14F0-6710-4907-A5C5-D6E5AC31AA5D}" name="Week ending date" dataDxfId="29"/>
     <tableColumn id="3" xr3:uid="{77D7746D-18EF-4BA5-B8F5-B743F6E15B4E}" name="Objective"/>
     <tableColumn id="8" xr3:uid="{EF91DA4F-CBB3-4C2E-BE11-3FF42E040801}" name="Satisfactory Progress" dataCellStyle="Good"/>
     <tableColumn id="4" xr3:uid="{93A5D790-2610-40CF-822C-0C84A09B6FE8}" name="Progress"/>
@@ -1154,17 +1232,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FD7340E-182D-43F5-938D-6092047D1063}" name="Table32" displayName="Table32" ref="A17:H23" totalsRowShown="0" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FD7340E-182D-43F5-938D-6092047D1063}" name="Table32" displayName="Table32" ref="A17:H23" totalsRowShown="0" dataDxfId="28">
   <autoFilter ref="A17:H23" xr:uid="{AF172F78-D62B-4280-84ED-8C6B5ACDF354}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F3BD302C-C92C-4942-BD36-FA304D64F3EB}" name="Name" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{5DDBB7FD-4EE8-4F7E-A3D2-6B5A752631DF}" name="Week ending date" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{EF127786-A680-4211-B5BF-6661403383A6}" name="Objective" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{7218DB10-0B84-434B-A19F-BECFC273CDFA}" name="Satisfactory Progress" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{CBDBB2B4-ED80-4195-9D9F-B052AA6F1BAB}" name="Progress" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{0AA61E4B-0301-4C64-94A1-EA6DF7F98D6A}" name="Deliverables" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{DE9AF41C-DA93-41F7-8B94-CB8CABB0A48C}" name="Dependencies" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{53B9A5C7-49FF-497D-A8B8-1C8A6867F726}" name="Hours" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{F3BD302C-C92C-4942-BD36-FA304D64F3EB}" name="Name" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{5DDBB7FD-4EE8-4F7E-A3D2-6B5A752631DF}" name="Week ending date" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{EF127786-A680-4211-B5BF-6661403383A6}" name="Objective" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{7218DB10-0B84-434B-A19F-BECFC273CDFA}" name="Satisfactory Progress" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{CBDBB2B4-ED80-4195-9D9F-B052AA6F1BAB}" name="Progress" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{0AA61E4B-0301-4C64-94A1-EA6DF7F98D6A}" name="Deliverables" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{DE9AF41C-DA93-41F7-8B94-CB8CABB0A48C}" name="Dependencies" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{53B9A5C7-49FF-497D-A8B8-1C8A6867F726}" name="Hours" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1175,9 +1253,9 @@
   <autoFilter ref="A33:H39" xr:uid="{0A54035B-5321-4F41-8018-2E72ABE1A3CE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7EB17E51-19DB-472E-8181-6DB89BD35F8A}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{9F725E84-51E8-4EE6-AE33-BD3341C0933D}" name="Week ending date" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{9F725E84-51E8-4EE6-AE33-BD3341C0933D}" name="Week ending date" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{63C2F6D4-86F2-47E9-AAD5-955ACF3E8861}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{295EF8C6-9C55-4347-844E-A4A75F81AC1F}" name="Satisfactory Progress" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{295EF8C6-9C55-4347-844E-A4A75F81AC1F}" name="Satisfactory Progress" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{F5A99744-24AA-4B13-BB4F-EFD4E6BF40FD}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{B39838FB-0086-4A72-9E14-C0C5B3F4F9AD}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{CF988054-5385-4AEB-B9E6-4C0F08E7DA75}" name="Dependencies"/>
@@ -1192,9 +1270,9 @@
   <autoFilter ref="A25:H31" xr:uid="{DA227A29-4C8A-4B67-9C8E-01733A0B3317}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F0850E0F-9829-4438-8D05-D79BBC233B1C}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{3B2351F9-F706-4D7A-BB34-513C649561F8}" name="Week ending date" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{3B2351F9-F706-4D7A-BB34-513C649561F8}" name="Week ending date" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{B476097B-479E-43CD-8911-FA9155FA6DBF}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{9B1BC001-E56D-4DF0-8CF5-3B5133733D4C}" name="Satisfactory Progress" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{9B1BC001-E56D-4DF0-8CF5-3B5133733D4C}" name="Satisfactory Progress" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{F5B94650-8D72-4165-AB08-C77CF5DC0089}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{853EA2D7-46E8-488E-A974-5EEEF25BE38A}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{5BE041A0-A5A6-4889-816E-965200BC15AE}" name="Dependencies"/>
@@ -1209,9 +1287,9 @@
   <autoFilter ref="A41:H47" xr:uid="{D2FBF5FD-E02E-40E7-8E34-C484653BF6DF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{779B12E3-CF8D-4362-8564-A04744DFE317}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{72623AFD-AE5D-472D-BA2D-325EDEC3BBC8}" name="Week ending date" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{72623AFD-AE5D-472D-BA2D-325EDEC3BBC8}" name="Week ending date" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{4E1545E5-A24C-4965-809E-8D5324CA29E0}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{233D036F-651C-4121-A865-8F7079B3F8B0}" name="Satisfactory Progress" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{233D036F-651C-4121-A865-8F7079B3F8B0}" name="Satisfactory Progress" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{27455D0B-2536-476E-A2E7-089B51EE8641}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{FDE0141F-DFB7-407A-AE25-E0F13041EDC8}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{00D62C56-F25E-406A-B0F0-E9E69B6E1BD3}" name="Dependencies"/>
@@ -1226,9 +1304,9 @@
   <autoFilter ref="A49:H55" xr:uid="{B907C122-58AE-44A3-9818-AFAFCE2F4740}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{90506F9F-7541-496A-A43C-7FD7EC833D65}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{142A1AC6-E52C-4274-A965-776324EF804D}" name="Week ending date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{142A1AC6-E52C-4274-A965-776324EF804D}" name="Week ending date" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{EE832172-8D63-453D-83A9-2DFD9679AB1E}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{F334C323-90CA-4279-B12A-94F3D8479154}" name="Satisfactory Progress" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{F334C323-90CA-4279-B12A-94F3D8479154}" name="Satisfactory Progress" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{9460083D-A7ED-4816-ADDE-8D94BBCAE2DA}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{E1713EE3-5356-4486-9FA6-43D6515C6185}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{A6623A90-3F9C-4346-A84B-C32025CC31B8}" name="Dependencies"/>
@@ -1243,9 +1321,9 @@
   <autoFilter ref="A57:H63" xr:uid="{5EAA595B-BCCD-4CC6-8C37-C37A62376111}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C3C8235C-CFD2-4419-922F-81C9263AC468}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{3EA2B805-841C-46B6-AA87-0255A0B19F40}" name="Week ending date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3EA2B805-841C-46B6-AA87-0255A0B19F40}" name="Week ending date" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{7038F8A8-6518-4B57-A98C-328098C84ACF}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{19202101-9DC4-4AB1-AE91-3D0165543914}" name="Satisfactory Progress" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{19202101-9DC4-4AB1-AE91-3D0165543914}" name="Satisfactory Progress" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{B60F6342-2420-4464-9FE1-640027DFFA28}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{82C08185-62B0-49B8-8BF8-A43FAD604047}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{CAD1A98A-74B0-4F1D-ADD6-0C436D5EDB8E}" name="Dependencies"/>
@@ -1260,9 +1338,9 @@
   <autoFilter ref="A65:H71" xr:uid="{94928A84-CEC8-4686-A48A-A106421EFF97}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{122D3763-DD48-4DB8-8D44-5D63ED13E699}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{FCD2BFCD-EF2B-4360-B3AE-7271D88EC80B}" name="Week ending date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FCD2BFCD-EF2B-4360-B3AE-7271D88EC80B}" name="Week ending date" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{BC0C5139-381F-421E-82A5-8F2665A6D53A}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{27E0CB91-7760-4BBE-98CF-37C7F0809D4C}" name="Satisfactory Progress" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{27E0CB91-7760-4BBE-98CF-37C7F0809D4C}" name="Satisfactory Progress" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{9BFB9637-598D-41DD-B2F0-A8C74A76ABAE}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{C0CAB8E0-A4F5-4C92-8BC8-BDFAC6FC58B3}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{8C5A0E92-FB26-4C7B-B09F-68CCE093EF0B}" name="Dependencies"/>
@@ -1569,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -3451,8 +3529,8 @@
       <c r="G82" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H82" s="5" t="s">
-        <v>63</v>
+      <c r="H82" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3582,6 +3660,370 @@
         <v>12</v>
       </c>
       <c r="H87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="4">
+        <v>43881</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="4">
+        <v>43881</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" s="4">
+        <v>43881</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" s="4">
+        <v>43881</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="2">
+        <v>43881</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" s="2">
+        <v>43881</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="6">
+        <v>43888</v>
+      </c>
+      <c r="C98" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F98" t="s">
+        <v>75</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="6">
+        <v>43888</v>
+      </c>
+      <c r="C99" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F99" t="s">
+        <v>88</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="6">
+        <v>43888</v>
+      </c>
+      <c r="C100" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F100" t="s">
+        <v>75</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" s="6">
+        <v>43888</v>
+      </c>
+      <c r="C101" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F101" t="s">
+        <v>74</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3598,7 +4040,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <tableParts count="11">
+  <tableParts count="13">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -3610,6 +4052,8 @@
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/management/organisation.xlsx
+++ b/management/organisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseen\Desktop\hometrics\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C66645-1FC6-4FCC-A38B-5C47EFB09B78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD8BAB5-1245-4E2C-AF0D-E63196AE04B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t>Migrate database to Heroku PostgreSQL &amp; temperature control backend</t>
+  </si>
+  <si>
+    <t>Complete (except data migration, we are pivoting away from Heroku)</t>
+  </si>
+  <si>
+    <t>1 (excluding data migration work)</t>
+  </si>
+  <si>
+    <t>F-UR 2.2, F-UR 3.10, F-UR 3.11</t>
+  </si>
+  <si>
+    <t>F-UR 2.2, backend of F-UR 3.10 &amp; 3.11, add ActivityIndicator component</t>
   </si>
 </sst>
 </file>
@@ -840,7 +852,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1130,17 +1153,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{843EC594-8B61-439A-91A9-B0D87B29EFB0}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{843EC594-8B61-439A-91A9-B0D87B29EFB0}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0" dataDxfId="39">
   <autoFilter ref="A1:H7" xr:uid="{0A008C55-1AFE-469E-9B1B-59ECCCBA57E2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5BDF2CDB-488A-4557-A2F0-16F3BBD2D877}" name="Name" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{804056EB-751D-4FEC-BF8B-AE937D7F5015}" name="Week ending date" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{C6420F38-B6AD-4AF7-845D-1AC7B214087C}" name="Objective" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{5BDF2CDB-488A-4557-A2F0-16F3BBD2D877}" name="Name" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{804056EB-751D-4FEC-BF8B-AE937D7F5015}" name="Week ending date" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{C6420F38-B6AD-4AF7-845D-1AC7B214087C}" name="Objective" dataDxfId="36"/>
     <tableColumn id="9" xr3:uid="{7C3A71D2-7824-43E4-9BC3-4640C1163F66}" name="Satisfactory Progress" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{21687B5E-C096-42B5-B358-FF6C453ED4A0}" name="Progress" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{B885D38E-90CB-4675-9A13-6C8DD7B84851}" name="Deliverables" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{1EE46279-20F5-436E-A029-B70FEDE1349C}" name="Dependencies" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{B04E38F6-8793-49E9-A252-04A2A1A35EDC}" name="Hours" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{21687B5E-C096-42B5-B358-FF6C453ED4A0}" name="Progress" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{B885D38E-90CB-4675-9A13-6C8DD7B84851}" name="Deliverables" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{1EE46279-20F5-436E-A029-B70FEDE1349C}" name="Dependencies" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{B04E38F6-8793-49E9-A252-04A2A1A35EDC}" name="Hours" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1151,9 +1174,9 @@
   <autoFilter ref="A73:H79" xr:uid="{D8F26B56-D129-42DB-B906-ECC3FD9D98AC}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E7958848-6E54-42D8-8015-31182E5D7B27}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{E7CE1CB3-CCE5-4077-9B08-488BCB1D9EF4}" name="Week ending date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E7CE1CB3-CCE5-4077-9B08-488BCB1D9EF4}" name="Week ending date" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{4D9FAB89-789D-4671-A910-86A17409EA96}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{475CFC22-1905-4BBA-9844-372E63A07AFE}" name="Satisfactory Progress" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{475CFC22-1905-4BBA-9844-372E63A07AFE}" name="Satisfactory Progress" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{DB346AA5-986D-451A-B8D9-8A3AD26B046C}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{AA7F919D-2842-4ADE-A599-6E4452C1E440}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{D70A771E-6948-4BBD-9EE8-FC159BA62161}" name="Dependencies"/>
@@ -1168,9 +1191,9 @@
   <autoFilter ref="A81:H87" xr:uid="{15E8E00F-0F44-4534-AAF0-D8548D329B9F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B103AC18-C508-429B-A263-B7B31A783B0F}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{FA545805-1077-4FF3-BC3A-C6CBA99D35D5}" name="Week ending date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FA545805-1077-4FF3-BC3A-C6CBA99D35D5}" name="Week ending date" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{DC87C481-39A1-4D17-9674-D072F67C35E9}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{55757F20-3C60-45D1-830A-12DCAA6EA793}" name="Satisfactory Progress" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{55757F20-3C60-45D1-830A-12DCAA6EA793}" name="Satisfactory Progress" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{E351D832-0001-4863-910F-4BB23F082B12}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{83A49415-8729-4623-A4D2-03EDB218FB0E}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{2B78A1B0-88DC-4B9E-B068-3BB6976D9311}" name="Dependencies"/>
@@ -1185,9 +1208,9 @@
   <autoFilter ref="A89:H95" xr:uid="{2ECDB29E-3D42-4AD4-87A9-8823F17D02AD}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0B3E0BF7-204D-4FED-820B-A1C91D9E6F73}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{45E346E3-AF50-4000-B5EF-A171F59A05E7}" name="Week ending date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{45E346E3-AF50-4000-B5EF-A171F59A05E7}" name="Week ending date" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{DC34F243-8204-415E-B7F8-4802E219F8D1}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{049E9916-4A23-4061-B56D-3ED23F749CBB}" name="Satisfactory Progress" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{049E9916-4A23-4061-B56D-3ED23F749CBB}" name="Satisfactory Progress" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{0C233A8F-B9B1-43A5-A3A0-0C19F6236C1E}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{FAB75192-B753-42D9-AD12-AEAFCB43131D}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{47BCB8E7-4CBF-49DD-A2D1-88919DA0EA1C}" name="Dependencies"/>
@@ -1202,13 +1225,30 @@
   <autoFilter ref="A97:H103" xr:uid="{A98912C6-4862-4588-B977-85807101FA59}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3948D17F-1168-4CF6-923C-2C77219C37D3}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{12C76E18-2BBB-49A3-BEC4-42902DE30713}" name="Week ending date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{12C76E18-2BBB-49A3-BEC4-42902DE30713}" name="Week ending date" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{E960D0C1-0514-4352-9DD5-7B303BFB2219}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{5B33989F-43AD-4C48-9BD7-47CFE84BC06D}" name="Satisfactory Progress" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{5B33989F-43AD-4C48-9BD7-47CFE84BC06D}" name="Satisfactory Progress" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{9F4A9C8D-999D-43C2-B5AE-F4D51F04346A}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{DB987D03-A94E-450E-9E75-384DA948ED82}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{ED65F018-A973-4B37-87D3-702B6075CF4D}" name="Dependencies"/>
     <tableColumn id="7" xr3:uid="{A4D0A9B2-1AB5-404A-B5B0-77D9A5C808E4}" name="Hours"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FB284D11-F3FC-4EB7-A812-757A6602F1AF}" name="Table327689101112131415" displayName="Table327689101112131415" ref="A105:H111" totalsRowShown="0">
+  <autoFilter ref="A105:H111" xr:uid="{04FCD7BA-51FA-4800-AAF5-459728AEB57E}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{233CFB38-7434-4F67-A968-2C8F7834ADA3}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{16C30C02-B555-4C2C-AFEF-93D4250E70C9}" name="Week ending date" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{12C53416-BB78-4AF7-BA13-E888C4298890}" name="Objective"/>
+    <tableColumn id="8" xr3:uid="{DC8573AA-BC56-45E0-9A85-F2935A69A715}" name="Satisfactory Progress" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{A46BB867-8D55-4478-AD3F-E589CE9DAC96}" name="Progress"/>
+    <tableColumn id="5" xr3:uid="{E23945B5-072A-466E-8667-C3060781B387}" name="Deliverables"/>
+    <tableColumn id="6" xr3:uid="{2CAE5519-C476-4F22-A928-71031C96FE75}" name="Dependencies"/>
+    <tableColumn id="7" xr3:uid="{12BB5AD2-7B18-48F3-BBC7-A43CA4FAD6F3}" name="Hours"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1219,7 +1259,7 @@
   <autoFilter ref="A9:H15" xr:uid="{9B15872F-D7B6-401E-831C-28C7BB633115}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C13B2CF4-3F76-4D51-B756-D111A72296FB}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{957E14F0-6710-4907-A5C5-D6E5AC31AA5D}" name="Week ending date" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{957E14F0-6710-4907-A5C5-D6E5AC31AA5D}" name="Week ending date" dataDxfId="31"/>
     <tableColumn id="3" xr3:uid="{77D7746D-18EF-4BA5-B8F5-B743F6E15B4E}" name="Objective"/>
     <tableColumn id="8" xr3:uid="{EF91DA4F-CBB3-4C2E-BE11-3FF42E040801}" name="Satisfactory Progress" dataCellStyle="Good"/>
     <tableColumn id="4" xr3:uid="{93A5D790-2610-40CF-822C-0C84A09B6FE8}" name="Progress"/>
@@ -1232,17 +1272,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FD7340E-182D-43F5-938D-6092047D1063}" name="Table32" displayName="Table32" ref="A17:H23" totalsRowShown="0" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FD7340E-182D-43F5-938D-6092047D1063}" name="Table32" displayName="Table32" ref="A17:H23" totalsRowShown="0" dataDxfId="30">
   <autoFilter ref="A17:H23" xr:uid="{AF172F78-D62B-4280-84ED-8C6B5ACDF354}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F3BD302C-C92C-4942-BD36-FA304D64F3EB}" name="Name" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{5DDBB7FD-4EE8-4F7E-A3D2-6B5A752631DF}" name="Week ending date" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{EF127786-A680-4211-B5BF-6661403383A6}" name="Objective" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{7218DB10-0B84-434B-A19F-BECFC273CDFA}" name="Satisfactory Progress" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{CBDBB2B4-ED80-4195-9D9F-B052AA6F1BAB}" name="Progress" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{0AA61E4B-0301-4C64-94A1-EA6DF7F98D6A}" name="Deliverables" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{DE9AF41C-DA93-41F7-8B94-CB8CABB0A48C}" name="Dependencies" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{53B9A5C7-49FF-497D-A8B8-1C8A6867F726}" name="Hours" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{F3BD302C-C92C-4942-BD36-FA304D64F3EB}" name="Name" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{5DDBB7FD-4EE8-4F7E-A3D2-6B5A752631DF}" name="Week ending date" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{EF127786-A680-4211-B5BF-6661403383A6}" name="Objective" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{7218DB10-0B84-434B-A19F-BECFC273CDFA}" name="Satisfactory Progress" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{CBDBB2B4-ED80-4195-9D9F-B052AA6F1BAB}" name="Progress" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{0AA61E4B-0301-4C64-94A1-EA6DF7F98D6A}" name="Deliverables" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{DE9AF41C-DA93-41F7-8B94-CB8CABB0A48C}" name="Dependencies" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{53B9A5C7-49FF-497D-A8B8-1C8A6867F726}" name="Hours" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1253,9 +1293,9 @@
   <autoFilter ref="A33:H39" xr:uid="{0A54035B-5321-4F41-8018-2E72ABE1A3CE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7EB17E51-19DB-472E-8181-6DB89BD35F8A}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{9F725E84-51E8-4EE6-AE33-BD3341C0933D}" name="Week ending date" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{9F725E84-51E8-4EE6-AE33-BD3341C0933D}" name="Week ending date" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{63C2F6D4-86F2-47E9-AAD5-955ACF3E8861}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{295EF8C6-9C55-4347-844E-A4A75F81AC1F}" name="Satisfactory Progress" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{295EF8C6-9C55-4347-844E-A4A75F81AC1F}" name="Satisfactory Progress" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{F5A99744-24AA-4B13-BB4F-EFD4E6BF40FD}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{B39838FB-0086-4A72-9E14-C0C5B3F4F9AD}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{CF988054-5385-4AEB-B9E6-4C0F08E7DA75}" name="Dependencies"/>
@@ -1270,9 +1310,9 @@
   <autoFilter ref="A25:H31" xr:uid="{DA227A29-4C8A-4B67-9C8E-01733A0B3317}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F0850E0F-9829-4438-8D05-D79BBC233B1C}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{3B2351F9-F706-4D7A-BB34-513C649561F8}" name="Week ending date" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{3B2351F9-F706-4D7A-BB34-513C649561F8}" name="Week ending date" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{B476097B-479E-43CD-8911-FA9155FA6DBF}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{9B1BC001-E56D-4DF0-8CF5-3B5133733D4C}" name="Satisfactory Progress" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{9B1BC001-E56D-4DF0-8CF5-3B5133733D4C}" name="Satisfactory Progress" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{F5B94650-8D72-4165-AB08-C77CF5DC0089}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{853EA2D7-46E8-488E-A974-5EEEF25BE38A}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{5BE041A0-A5A6-4889-816E-965200BC15AE}" name="Dependencies"/>
@@ -1287,9 +1327,9 @@
   <autoFilter ref="A41:H47" xr:uid="{D2FBF5FD-E02E-40E7-8E34-C484653BF6DF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{779B12E3-CF8D-4362-8564-A04744DFE317}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{72623AFD-AE5D-472D-BA2D-325EDEC3BBC8}" name="Week ending date" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{72623AFD-AE5D-472D-BA2D-325EDEC3BBC8}" name="Week ending date" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{4E1545E5-A24C-4965-809E-8D5324CA29E0}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{233D036F-651C-4121-A865-8F7079B3F8B0}" name="Satisfactory Progress" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{233D036F-651C-4121-A865-8F7079B3F8B0}" name="Satisfactory Progress" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{27455D0B-2536-476E-A2E7-089B51EE8641}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{FDE0141F-DFB7-407A-AE25-E0F13041EDC8}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{00D62C56-F25E-406A-B0F0-E9E69B6E1BD3}" name="Dependencies"/>
@@ -1304,9 +1344,9 @@
   <autoFilter ref="A49:H55" xr:uid="{B907C122-58AE-44A3-9818-AFAFCE2F4740}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{90506F9F-7541-496A-A43C-7FD7EC833D65}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{142A1AC6-E52C-4274-A965-776324EF804D}" name="Week ending date" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{142A1AC6-E52C-4274-A965-776324EF804D}" name="Week ending date" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{EE832172-8D63-453D-83A9-2DFD9679AB1E}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{F334C323-90CA-4279-B12A-94F3D8479154}" name="Satisfactory Progress" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{F334C323-90CA-4279-B12A-94F3D8479154}" name="Satisfactory Progress" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{9460083D-A7ED-4816-ADDE-8D94BBCAE2DA}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{E1713EE3-5356-4486-9FA6-43D6515C6185}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{A6623A90-3F9C-4346-A84B-C32025CC31B8}" name="Dependencies"/>
@@ -1321,9 +1361,9 @@
   <autoFilter ref="A57:H63" xr:uid="{5EAA595B-BCCD-4CC6-8C37-C37A62376111}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C3C8235C-CFD2-4419-922F-81C9263AC468}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{3EA2B805-841C-46B6-AA87-0255A0B19F40}" name="Week ending date" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{3EA2B805-841C-46B6-AA87-0255A0B19F40}" name="Week ending date" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{7038F8A8-6518-4B57-A98C-328098C84ACF}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{19202101-9DC4-4AB1-AE91-3D0165543914}" name="Satisfactory Progress" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{19202101-9DC4-4AB1-AE91-3D0165543914}" name="Satisfactory Progress" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{B60F6342-2420-4464-9FE1-640027DFFA28}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{82C08185-62B0-49B8-8BF8-A43FAD604047}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{CAD1A98A-74B0-4F1D-ADD6-0C436D5EDB8E}" name="Dependencies"/>
@@ -1338,9 +1378,9 @@
   <autoFilter ref="A65:H71" xr:uid="{94928A84-CEC8-4686-A48A-A106421EFF97}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{122D3763-DD48-4DB8-8D44-5D63ED13E699}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{FCD2BFCD-EF2B-4360-B3AE-7271D88EC80B}" name="Week ending date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FCD2BFCD-EF2B-4360-B3AE-7271D88EC80B}" name="Week ending date" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{BC0C5139-381F-421E-82A5-8F2665A6D53A}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{27E0CB91-7760-4BBE-98CF-37C7F0809D4C}" name="Satisfactory Progress" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{27E0CB91-7760-4BBE-98CF-37C7F0809D4C}" name="Satisfactory Progress" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{9BFB9637-598D-41DD-B2F0-A8C74A76ABAE}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{C0CAB8E0-A4F5-4C92-8BC8-BDFAC6FC58B3}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{8C5A0E92-FB26-4C7B-B09F-68CCE093EF0B}" name="Dependencies"/>
@@ -1647,20 +1687,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="55.77734375" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="6" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
     <col min="7" max="7" width="38.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3924,29 +3966,29 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="4">
         <v>43888</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F100" t="s">
-        <v>75</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>63</v>
+      <c r="H100" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -4024,6 +4066,170 @@
         <v>12</v>
       </c>
       <c r="H103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="4">
+        <v>43895</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4040,7 +4246,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <tableParts count="13">
+  <tableParts count="14">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -4054,6 +4260,7 @@
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/management/organisation.xlsx
+++ b/management/organisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseen\Desktop\hometrics\management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzevi\OneDrive\Documents\GitHub\hometrics\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD8BAB5-1245-4E2C-AF0D-E63196AE04B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{BBD8BAB5-1245-4E2C-AF0D-E63196AE04B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{316563CC-8DE3-4D1C-8DCC-DFE8E26DD8E6}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>F-UR 2.2, backend of F-UR 3.10 &amp; 3.11, add ActivityIndicator component</t>
+  </si>
+  <si>
+    <t>Settings Page</t>
   </si>
 </sst>
 </file>
@@ -1690,22 +1693,22 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="57.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="7" max="7" width="38.44140625" customWidth="1"/>
-    <col min="8" max="8" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.52734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.41015625" customWidth="1"/>
+    <col min="3" max="3" width="57.41015625" customWidth="1"/>
+    <col min="4" max="4" width="19.64453125" customWidth="1"/>
+    <col min="5" max="5" width="55.64453125" customWidth="1"/>
+    <col min="6" max="6" width="25.87890625" customWidth="1"/>
+    <col min="7" max="7" width="38.41015625" customWidth="1"/>
+    <col min="8" max="8" width="27.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2795,7 +2798,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3003,7 +3006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
         <v>50</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="s">
         <v>51</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
         <v>52</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
         <v>53</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3159,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
         <v>53</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A70" s="1" t="s">
         <v>54</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71" s="1" t="s">
         <v>55</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
         <v>50</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
         <v>51</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
         <v>52</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
         <v>53</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A78" s="1" t="s">
         <v>54</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A79" s="1" t="s">
         <v>55</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
         <v>50</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="s">
         <v>51</v>
       </c>
@@ -3601,7 +3604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="s">
         <v>52</v>
       </c>
@@ -3627,7 +3630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A85" s="3" t="s">
         <v>53</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A86" s="1" t="s">
         <v>54</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A87" s="1" t="s">
         <v>55</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3731,7 +3734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A90" s="3" t="s">
         <v>50</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A91" s="3" t="s">
         <v>51</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A92" s="3" t="s">
         <v>52</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A93" s="3" t="s">
         <v>53</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A94" s="1" t="s">
         <v>54</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A95" s="1" t="s">
         <v>55</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3913,7 +3916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>50</v>
       </c>
@@ -3939,33 +3942,33 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A99" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="4">
         <v>43888</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="D99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G99" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A100" s="3" t="s">
         <v>52</v>
       </c>
@@ -3991,7 +3994,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A102" s="1" t="s">
         <v>54</v>
       </c>
@@ -4043,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A103" s="1" t="s">
         <v>55</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -4115,13 +4118,15 @@
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="6"/>
+      <c r="B107" s="6">
+        <v>43895</v>
+      </c>
       <c r="C107" s="5" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>63</v>
@@ -4135,7 +4140,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A108" s="3" t="s">
         <v>52</v>
       </c>
@@ -4161,7 +4166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>53</v>
       </c>
@@ -4181,7 +4186,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A110" s="1" t="s">
         <v>54</v>
       </c>
@@ -4207,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A111" s="1" t="s">
         <v>55</v>
       </c>

--- a/management/organisation.xlsx
+++ b/management/organisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzevi\OneDrive\Documents\GitHub\hometrics\management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseen\Desktop\hometrics\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{BBD8BAB5-1245-4E2C-AF0D-E63196AE04B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{316563CC-8DE3-4D1C-8DCC-DFE8E26DD8E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992ACDE8-77CE-44E2-A961-FC7C928553BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>Settings Page</t>
+  </si>
+  <si>
+    <t>Complete backend (except Lee's assignment), Complete frontend with Vincent</t>
+  </si>
+  <si>
+    <t>UI, Backend</t>
   </si>
 </sst>
 </file>
@@ -855,7 +861,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1156,17 +1173,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{843EC594-8B61-439A-91A9-B0D87B29EFB0}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{843EC594-8B61-439A-91A9-B0D87B29EFB0}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0" dataDxfId="41">
   <autoFilter ref="A1:H7" xr:uid="{0A008C55-1AFE-469E-9B1B-59ECCCBA57E2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5BDF2CDB-488A-4557-A2F0-16F3BBD2D877}" name="Name" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{804056EB-751D-4FEC-BF8B-AE937D7F5015}" name="Week ending date" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{C6420F38-B6AD-4AF7-845D-1AC7B214087C}" name="Objective" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{5BDF2CDB-488A-4557-A2F0-16F3BBD2D877}" name="Name" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{804056EB-751D-4FEC-BF8B-AE937D7F5015}" name="Week ending date" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{C6420F38-B6AD-4AF7-845D-1AC7B214087C}" name="Objective" dataDxfId="38"/>
     <tableColumn id="9" xr3:uid="{7C3A71D2-7824-43E4-9BC3-4640C1163F66}" name="Satisfactory Progress" dataCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{21687B5E-C096-42B5-B358-FF6C453ED4A0}" name="Progress" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{B885D38E-90CB-4675-9A13-6C8DD7B84851}" name="Deliverables" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{1EE46279-20F5-436E-A029-B70FEDE1349C}" name="Dependencies" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{B04E38F6-8793-49E9-A252-04A2A1A35EDC}" name="Hours" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{21687B5E-C096-42B5-B358-FF6C453ED4A0}" name="Progress" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{B885D38E-90CB-4675-9A13-6C8DD7B84851}" name="Deliverables" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{1EE46279-20F5-436E-A029-B70FEDE1349C}" name="Dependencies" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{B04E38F6-8793-49E9-A252-04A2A1A35EDC}" name="Hours" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1177,9 +1194,9 @@
   <autoFilter ref="A73:H79" xr:uid="{D8F26B56-D129-42DB-B906-ECC3FD9D98AC}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E7958848-6E54-42D8-8015-31182E5D7B27}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{E7CE1CB3-CCE5-4077-9B08-488BCB1D9EF4}" name="Week ending date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E7CE1CB3-CCE5-4077-9B08-488BCB1D9EF4}" name="Week ending date" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{4D9FAB89-789D-4671-A910-86A17409EA96}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{475CFC22-1905-4BBA-9844-372E63A07AFE}" name="Satisfactory Progress" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{475CFC22-1905-4BBA-9844-372E63A07AFE}" name="Satisfactory Progress" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{DB346AA5-986D-451A-B8D9-8A3AD26B046C}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{AA7F919D-2842-4ADE-A599-6E4452C1E440}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{D70A771E-6948-4BBD-9EE8-FC159BA62161}" name="Dependencies"/>
@@ -1194,9 +1211,9 @@
   <autoFilter ref="A81:H87" xr:uid="{15E8E00F-0F44-4534-AAF0-D8548D329B9F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B103AC18-C508-429B-A263-B7B31A783B0F}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{FA545805-1077-4FF3-BC3A-C6CBA99D35D5}" name="Week ending date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FA545805-1077-4FF3-BC3A-C6CBA99D35D5}" name="Week ending date" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{DC87C481-39A1-4D17-9674-D072F67C35E9}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{55757F20-3C60-45D1-830A-12DCAA6EA793}" name="Satisfactory Progress" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{55757F20-3C60-45D1-830A-12DCAA6EA793}" name="Satisfactory Progress" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{E351D832-0001-4863-910F-4BB23F082B12}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{83A49415-8729-4623-A4D2-03EDB218FB0E}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{2B78A1B0-88DC-4B9E-B068-3BB6976D9311}" name="Dependencies"/>
@@ -1211,9 +1228,9 @@
   <autoFilter ref="A89:H95" xr:uid="{2ECDB29E-3D42-4AD4-87A9-8823F17D02AD}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0B3E0BF7-204D-4FED-820B-A1C91D9E6F73}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{45E346E3-AF50-4000-B5EF-A171F59A05E7}" name="Week ending date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{45E346E3-AF50-4000-B5EF-A171F59A05E7}" name="Week ending date" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{DC34F243-8204-415E-B7F8-4802E219F8D1}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{049E9916-4A23-4061-B56D-3ED23F749CBB}" name="Satisfactory Progress" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{049E9916-4A23-4061-B56D-3ED23F749CBB}" name="Satisfactory Progress" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{0C233A8F-B9B1-43A5-A3A0-0C19F6236C1E}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{FAB75192-B753-42D9-AD12-AEAFCB43131D}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{47BCB8E7-4CBF-49DD-A2D1-88919DA0EA1C}" name="Dependencies"/>
@@ -1228,9 +1245,9 @@
   <autoFilter ref="A97:H103" xr:uid="{A98912C6-4862-4588-B977-85807101FA59}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3948D17F-1168-4CF6-923C-2C77219C37D3}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{12C76E18-2BBB-49A3-BEC4-42902DE30713}" name="Week ending date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{12C76E18-2BBB-49A3-BEC4-42902DE30713}" name="Week ending date" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{E960D0C1-0514-4352-9DD5-7B303BFB2219}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{5B33989F-43AD-4C48-9BD7-47CFE84BC06D}" name="Satisfactory Progress" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5B33989F-43AD-4C48-9BD7-47CFE84BC06D}" name="Satisfactory Progress" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{9F4A9C8D-999D-43C2-B5AE-F4D51F04346A}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{DB987D03-A94E-450E-9E75-384DA948ED82}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{ED65F018-A973-4B37-87D3-702B6075CF4D}" name="Dependencies"/>
@@ -1245,13 +1262,30 @@
   <autoFilter ref="A105:H111" xr:uid="{04FCD7BA-51FA-4800-AAF5-459728AEB57E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{233CFB38-7434-4F67-A968-2C8F7834ADA3}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{16C30C02-B555-4C2C-AFEF-93D4250E70C9}" name="Week ending date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{16C30C02-B555-4C2C-AFEF-93D4250E70C9}" name="Week ending date" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{12C53416-BB78-4AF7-BA13-E888C4298890}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{DC8573AA-BC56-45E0-9A85-F2935A69A715}" name="Satisfactory Progress" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{DC8573AA-BC56-45E0-9A85-F2935A69A715}" name="Satisfactory Progress" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{A46BB867-8D55-4478-AD3F-E589CE9DAC96}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{E23945B5-072A-466E-8667-C3060781B387}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{2CAE5519-C476-4F22-A928-71031C96FE75}" name="Dependencies"/>
     <tableColumn id="7" xr3:uid="{12BB5AD2-7B18-48F3-BBC7-A43CA4FAD6F3}" name="Hours"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{FC1BD2C4-12F3-47C1-A1C0-38E4CDCC5686}" name="Table32768910111213141517" displayName="Table32768910111213141517" ref="A113:H119" totalsRowShown="0">
+  <autoFilter ref="A113:H119" xr:uid="{8E894E41-39B1-47AA-9E6D-5E9586182F01}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{13833338-C426-4D92-8AD3-73C86EA4C514}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{B0609326-C0C9-4F93-B68D-85858AB867B1}" name="Week ending date" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{83BEAA31-CF71-4A41-BB37-3C59E8F08725}" name="Objective"/>
+    <tableColumn id="8" xr3:uid="{530E79A0-6CE6-446B-8903-9CBF0E4860E9}" name="Satisfactory Progress" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{4A1D7770-A655-451B-AD19-4407A3168A89}" name="Progress"/>
+    <tableColumn id="5" xr3:uid="{7372B397-F7A4-4A85-9C62-56475FADBF1C}" name="Deliverables"/>
+    <tableColumn id="6" xr3:uid="{C61A999B-7D38-43C5-BAE2-C91480C97E6A}" name="Dependencies"/>
+    <tableColumn id="7" xr3:uid="{7567FCDC-7111-4D3B-8CBB-E57A218C5A60}" name="Hours"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1262,7 +1296,7 @@
   <autoFilter ref="A9:H15" xr:uid="{9B15872F-D7B6-401E-831C-28C7BB633115}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C13B2CF4-3F76-4D51-B756-D111A72296FB}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{957E14F0-6710-4907-A5C5-D6E5AC31AA5D}" name="Week ending date" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{957E14F0-6710-4907-A5C5-D6E5AC31AA5D}" name="Week ending date" dataDxfId="33"/>
     <tableColumn id="3" xr3:uid="{77D7746D-18EF-4BA5-B8F5-B743F6E15B4E}" name="Objective"/>
     <tableColumn id="8" xr3:uid="{EF91DA4F-CBB3-4C2E-BE11-3FF42E040801}" name="Satisfactory Progress" dataCellStyle="Good"/>
     <tableColumn id="4" xr3:uid="{93A5D790-2610-40CF-822C-0C84A09B6FE8}" name="Progress"/>
@@ -1275,17 +1309,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FD7340E-182D-43F5-938D-6092047D1063}" name="Table32" displayName="Table32" ref="A17:H23" totalsRowShown="0" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FD7340E-182D-43F5-938D-6092047D1063}" name="Table32" displayName="Table32" ref="A17:H23" totalsRowShown="0" dataDxfId="32">
   <autoFilter ref="A17:H23" xr:uid="{AF172F78-D62B-4280-84ED-8C6B5ACDF354}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F3BD302C-C92C-4942-BD36-FA304D64F3EB}" name="Name" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{5DDBB7FD-4EE8-4F7E-A3D2-6B5A752631DF}" name="Week ending date" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{EF127786-A680-4211-B5BF-6661403383A6}" name="Objective" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{7218DB10-0B84-434B-A19F-BECFC273CDFA}" name="Satisfactory Progress" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{CBDBB2B4-ED80-4195-9D9F-B052AA6F1BAB}" name="Progress" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{0AA61E4B-0301-4C64-94A1-EA6DF7F98D6A}" name="Deliverables" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{DE9AF41C-DA93-41F7-8B94-CB8CABB0A48C}" name="Dependencies" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{53B9A5C7-49FF-497D-A8B8-1C8A6867F726}" name="Hours" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{F3BD302C-C92C-4942-BD36-FA304D64F3EB}" name="Name" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{5DDBB7FD-4EE8-4F7E-A3D2-6B5A752631DF}" name="Week ending date" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{EF127786-A680-4211-B5BF-6661403383A6}" name="Objective" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{7218DB10-0B84-434B-A19F-BECFC273CDFA}" name="Satisfactory Progress" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{CBDBB2B4-ED80-4195-9D9F-B052AA6F1BAB}" name="Progress" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{0AA61E4B-0301-4C64-94A1-EA6DF7F98D6A}" name="Deliverables" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{DE9AF41C-DA93-41F7-8B94-CB8CABB0A48C}" name="Dependencies" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{53B9A5C7-49FF-497D-A8B8-1C8A6867F726}" name="Hours" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1296,9 +1330,9 @@
   <autoFilter ref="A33:H39" xr:uid="{0A54035B-5321-4F41-8018-2E72ABE1A3CE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7EB17E51-19DB-472E-8181-6DB89BD35F8A}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{9F725E84-51E8-4EE6-AE33-BD3341C0933D}" name="Week ending date" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{9F725E84-51E8-4EE6-AE33-BD3341C0933D}" name="Week ending date" dataDxfId="23"/>
     <tableColumn id="3" xr3:uid="{63C2F6D4-86F2-47E9-AAD5-955ACF3E8861}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{295EF8C6-9C55-4347-844E-A4A75F81AC1F}" name="Satisfactory Progress" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{295EF8C6-9C55-4347-844E-A4A75F81AC1F}" name="Satisfactory Progress" dataDxfId="22"/>
     <tableColumn id="4" xr3:uid="{F5A99744-24AA-4B13-BB4F-EFD4E6BF40FD}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{B39838FB-0086-4A72-9E14-C0C5B3F4F9AD}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{CF988054-5385-4AEB-B9E6-4C0F08E7DA75}" name="Dependencies"/>
@@ -1313,9 +1347,9 @@
   <autoFilter ref="A25:H31" xr:uid="{DA227A29-4C8A-4B67-9C8E-01733A0B3317}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F0850E0F-9829-4438-8D05-D79BBC233B1C}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{3B2351F9-F706-4D7A-BB34-513C649561F8}" name="Week ending date" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{3B2351F9-F706-4D7A-BB34-513C649561F8}" name="Week ending date" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{B476097B-479E-43CD-8911-FA9155FA6DBF}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{9B1BC001-E56D-4DF0-8CF5-3B5133733D4C}" name="Satisfactory Progress" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{9B1BC001-E56D-4DF0-8CF5-3B5133733D4C}" name="Satisfactory Progress" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{F5B94650-8D72-4165-AB08-C77CF5DC0089}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{853EA2D7-46E8-488E-A974-5EEEF25BE38A}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{5BE041A0-A5A6-4889-816E-965200BC15AE}" name="Dependencies"/>
@@ -1330,9 +1364,9 @@
   <autoFilter ref="A41:H47" xr:uid="{D2FBF5FD-E02E-40E7-8E34-C484653BF6DF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{779B12E3-CF8D-4362-8564-A04744DFE317}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{72623AFD-AE5D-472D-BA2D-325EDEC3BBC8}" name="Week ending date" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{72623AFD-AE5D-472D-BA2D-325EDEC3BBC8}" name="Week ending date" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{4E1545E5-A24C-4965-809E-8D5324CA29E0}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{233D036F-651C-4121-A865-8F7079B3F8B0}" name="Satisfactory Progress" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{233D036F-651C-4121-A865-8F7079B3F8B0}" name="Satisfactory Progress" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{27455D0B-2536-476E-A2E7-089B51EE8641}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{FDE0141F-DFB7-407A-AE25-E0F13041EDC8}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{00D62C56-F25E-406A-B0F0-E9E69B6E1BD3}" name="Dependencies"/>
@@ -1347,9 +1381,9 @@
   <autoFilter ref="A49:H55" xr:uid="{B907C122-58AE-44A3-9818-AFAFCE2F4740}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{90506F9F-7541-496A-A43C-7FD7EC833D65}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{142A1AC6-E52C-4274-A965-776324EF804D}" name="Week ending date" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{142A1AC6-E52C-4274-A965-776324EF804D}" name="Week ending date" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{EE832172-8D63-453D-83A9-2DFD9679AB1E}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{F334C323-90CA-4279-B12A-94F3D8479154}" name="Satisfactory Progress" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{F334C323-90CA-4279-B12A-94F3D8479154}" name="Satisfactory Progress" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{9460083D-A7ED-4816-ADDE-8D94BBCAE2DA}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{E1713EE3-5356-4486-9FA6-43D6515C6185}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{A6623A90-3F9C-4346-A84B-C32025CC31B8}" name="Dependencies"/>
@@ -1364,9 +1398,9 @@
   <autoFilter ref="A57:H63" xr:uid="{5EAA595B-BCCD-4CC6-8C37-C37A62376111}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C3C8235C-CFD2-4419-922F-81C9263AC468}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{3EA2B805-841C-46B6-AA87-0255A0B19F40}" name="Week ending date" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{3EA2B805-841C-46B6-AA87-0255A0B19F40}" name="Week ending date" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{7038F8A8-6518-4B57-A98C-328098C84ACF}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{19202101-9DC4-4AB1-AE91-3D0165543914}" name="Satisfactory Progress" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{19202101-9DC4-4AB1-AE91-3D0165543914}" name="Satisfactory Progress" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{B60F6342-2420-4464-9FE1-640027DFFA28}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{82C08185-62B0-49B8-8BF8-A43FAD604047}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{CAD1A98A-74B0-4F1D-ADD6-0C436D5EDB8E}" name="Dependencies"/>
@@ -1381,9 +1415,9 @@
   <autoFilter ref="A65:H71" xr:uid="{94928A84-CEC8-4686-A48A-A106421EFF97}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{122D3763-DD48-4DB8-8D44-5D63ED13E699}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{FCD2BFCD-EF2B-4360-B3AE-7271D88EC80B}" name="Week ending date" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{FCD2BFCD-EF2B-4360-B3AE-7271D88EC80B}" name="Week ending date" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{BC0C5139-381F-421E-82A5-8F2665A6D53A}" name="Objective"/>
-    <tableColumn id="8" xr3:uid="{27E0CB91-7760-4BBE-98CF-37C7F0809D4C}" name="Satisfactory Progress" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{27E0CB91-7760-4BBE-98CF-37C7F0809D4C}" name="Satisfactory Progress" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{9BFB9637-598D-41DD-B2F0-A8C74A76ABAE}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{C0CAB8E0-A4F5-4C92-8BC8-BDFAC6FC58B3}" name="Deliverables"/>
     <tableColumn id="6" xr3:uid="{8C5A0E92-FB26-4C7B-B09F-68CCE093EF0B}" name="Dependencies"/>
@@ -1690,25 +1724,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="D88" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.52734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.41015625" customWidth="1"/>
-    <col min="3" max="3" width="57.41015625" customWidth="1"/>
-    <col min="4" max="4" width="19.64453125" customWidth="1"/>
-    <col min="5" max="5" width="55.64453125" customWidth="1"/>
-    <col min="6" max="6" width="25.87890625" customWidth="1"/>
-    <col min="7" max="7" width="38.41015625" customWidth="1"/>
-    <col min="8" max="8" width="27.76171875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -1760,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -1786,7 +1820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -1812,7 +1846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -1838,7 +1872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1864,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1890,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -1942,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -1968,7 +2002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -1994,7 +2028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -2020,7 +2054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2046,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -2072,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2098,7 +2132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -2124,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -2150,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -2176,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -2202,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2228,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -2254,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2280,7 +2314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -2306,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -2332,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -2358,7 +2392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -2384,7 +2418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -2410,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2462,7 +2496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -2488,7 +2522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
@@ -2514,7 +2548,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -2540,7 +2574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
@@ -2566,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
@@ -2592,7 +2626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -2618,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2644,7 +2678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -2670,7 +2704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -2696,7 +2730,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -2722,7 +2756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -2748,7 +2782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -2774,7 +2808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2798,7 +2832,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2824,7 +2858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
@@ -2850,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
@@ -2876,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -2902,7 +2936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
@@ -2928,7 +2962,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
@@ -2954,7 +2988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2980,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3006,7 +3040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>50</v>
       </c>
@@ -3032,7 +3066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>51</v>
       </c>
@@ -3058,7 +3092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>52</v>
       </c>
@@ -3084,7 +3118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>53</v>
       </c>
@@ -3110,7 +3144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3136,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3162,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3188,7 +3222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
@@ -3214,7 +3248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
@@ -3240,7 +3274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
@@ -3266,7 +3300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>53</v>
       </c>
@@ -3292,7 +3326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>54</v>
       </c>
@@ -3318,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>55</v>
       </c>
@@ -3344,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3370,7 +3404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>50</v>
       </c>
@@ -3396,7 +3430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>51</v>
       </c>
@@ -3422,7 +3456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>52</v>
       </c>
@@ -3448,7 +3482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>53</v>
       </c>
@@ -3474,7 +3508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>54</v>
       </c>
@@ -3500,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>55</v>
       </c>
@@ -3526,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -3552,7 +3586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>50</v>
       </c>
@@ -3578,7 +3612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>51</v>
       </c>
@@ -3604,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>52</v>
       </c>
@@ -3630,7 +3664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>53</v>
       </c>
@@ -3656,7 +3690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>54</v>
       </c>
@@ -3682,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>55</v>
       </c>
@@ -3708,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3734,7 +3768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>50</v>
       </c>
@@ -3760,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>51</v>
       </c>
@@ -3786,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>52</v>
       </c>
@@ -3812,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>53</v>
       </c>
@@ -3838,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>54</v>
       </c>
@@ -3864,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>55</v>
       </c>
@@ -3890,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3916,7 +3950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>50</v>
       </c>
@@ -3942,7 +3976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>51</v>
       </c>
@@ -3968,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>52</v>
       </c>
@@ -3994,7 +4028,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -4020,7 +4054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>54</v>
       </c>
@@ -4046,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>55</v>
       </c>
@@ -4072,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -4098,7 +4132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -4118,7 +4152,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>51</v>
       </c>
@@ -4140,7 +4174,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>52</v>
       </c>
@@ -4166,7 +4200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>53</v>
       </c>
@@ -4186,7 +4220,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>54</v>
       </c>
@@ -4212,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>55</v>
       </c>
@@ -4235,6 +4269,172 @@
         <v>12</v>
       </c>
       <c r="H111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115" s="6">
+        <v>43895</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="4">
+        <v>43902</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4251,7 +4451,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <tableParts count="14">
+  <tableParts count="15">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -4266,6 +4466,7 @@
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/management/organisation.xlsx
+++ b/management/organisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseen\Desktop\hometrics\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992ACDE8-77CE-44E2-A961-FC7C928553BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF98BA2B-E9BE-49B2-9778-12F5C9030511}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t>UI, Backend</t>
+  </si>
+  <si>
+    <t>Adding modals</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Complete background, finish aesthetic look of F-SR 1</t>
   </si>
 </sst>
 </file>
@@ -1726,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D88" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -3964,7 +3973,7 @@
         <v>63</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="F98" t="s">
         <v>75</v>
@@ -4029,29 +4038,29 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="4">
         <v>43888</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F101" t="s">
-        <v>74</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>63</v>
+      <c r="D101" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -4153,26 +4162,30 @@
       <c r="H106" s="5"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="4">
         <v>43895</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
+      <c r="D107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
@@ -4201,24 +4214,30 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
+      <c r="B109" s="4">
+        <v>43895</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
@@ -4302,7 +4321,9 @@
       <c r="A114" t="s">
         <v>50</v>
       </c>
-      <c r="B114" s="6"/>
+      <c r="B114" s="6">
+        <v>43902</v>
+      </c>
       <c r="C114" s="5" t="s">
         <v>63</v>
       </c>
@@ -4315,30 +4336,36 @@
       <c r="F114" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G114" s="5"/>
+      <c r="G114" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H114" s="5"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B115" s="6">
-        <v>43895</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D115" s="5" t="s">
+      <c r="B115" s="4">
+        <v>43902</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>63</v>
+      <c r="E115" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
+      <c r="G115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
@@ -4362,36 +4389,42 @@
       <c r="G116" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117" s="4">
+        <v>43902</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E117" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>53</v>
-      </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="5" t="s">
+      <c r="F117" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B118" s="2">
-        <v>43888</v>
+        <v>43902</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>12</v>
@@ -4417,7 +4450,7 @@
         <v>55</v>
       </c>
       <c r="B119" s="2">
-        <v>43888</v>
+        <v>43902</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>12</v>

--- a/management/organisation.xlsx
+++ b/management/organisation.xlsx
@@ -812,7 +812,7 @@
   <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="103" zoomScaleNormal="103" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C114" activeCellId="0" sqref="C114:G114"/>
+      <selection pane="topLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3411,7 +3411,7 @@
         <v>96</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>29</v>

--- a/management/organisation.xlsx
+++ b/management/organisation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="106">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t xml:space="preserve">Complete background, finish aesthetic look of F-SR 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalise meeting minutes for section 5 of stage 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting minutes</t>
   </si>
 </sst>
 </file>
@@ -387,24 +393,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -422,7 +416,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -446,13 +440,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -465,23 +453,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,17 +473,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Bad" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -537,12 +523,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -809,18 +795,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="103" zoomScaleNormal="103" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D98" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H122" activeCellId="0" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="57.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="57.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.44"/>
@@ -962,7 +948,7 @@
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="3" t="n">
         <v>43756</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -988,7 +974,7 @@
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="3" t="n">
         <v>43756</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1144,7 +1130,7 @@
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="3" t="n">
         <v>43763</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1170,7 +1156,7 @@
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="3" t="n">
         <v>43763</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1326,7 +1312,7 @@
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="3" t="n">
         <v>43770</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1352,7 +1338,7 @@
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="3" t="n">
         <v>43770</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1508,7 +1494,7 @@
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="3" t="n">
         <v>43777</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1534,7 +1520,7 @@
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="3" t="n">
         <v>43777</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1716,7 +1702,7 @@
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="5" t="n">
+      <c r="B39" s="3" t="n">
         <v>43784</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -1812,7 +1798,7 @@
       <c r="G43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1864,7 +1850,7 @@
       <c r="G45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1890,7 +1876,7 @@
       <c r="G46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1898,7 +1884,7 @@
       <c r="A47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="5" t="n">
+      <c r="B47" s="3" t="n">
         <v>43791</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2044,7 +2030,7 @@
       <c r="G53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2070,7 +2056,7 @@
       <c r="G54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2078,7 +2064,7 @@
       <c r="A55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="5" t="n">
+      <c r="B55" s="3" t="n">
         <v>43798</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2234,7 +2220,7 @@
       <c r="A62" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="5" t="n">
+      <c r="B62" s="3" t="n">
         <v>43853</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -2260,7 +2246,7 @@
       <c r="A63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="5" t="n">
+      <c r="B63" s="3" t="n">
         <v>43884</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -2416,7 +2402,7 @@
       <c r="A70" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="5" t="n">
+      <c r="B70" s="3" t="n">
         <v>43860</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -2442,7 +2428,7 @@
       <c r="A71" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B71" s="5" t="n">
+      <c r="B71" s="3" t="n">
         <v>43860</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -2598,7 +2584,7 @@
       <c r="A78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="5" t="n">
+      <c r="B78" s="3" t="n">
         <v>43864</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -2624,7 +2610,7 @@
       <c r="A79" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="5" t="n">
+      <c r="B79" s="3" t="n">
         <v>43864</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -2780,7 +2766,7 @@
       <c r="A86" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="5" t="n">
+      <c r="B86" s="3" t="n">
         <v>43874</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -2806,7 +2792,7 @@
       <c r="A87" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="5" t="n">
+      <c r="B87" s="3" t="n">
         <v>43874</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -2962,7 +2948,7 @@
       <c r="A94" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B94" s="5" t="n">
+      <c r="B94" s="3" t="n">
         <v>43881</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -2988,7 +2974,7 @@
       <c r="A95" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="5" t="n">
+      <c r="B95" s="3" t="n">
         <v>43881</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -3040,25 +3026,25 @@
       <c r="A98" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="7" t="n">
+      <c r="B98" s="6" t="n">
         <v>43888</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G98" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H98" s="6" t="n">
+      <c r="H98" s="5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3144,7 +3130,7 @@
       <c r="A102" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B102" s="5" t="n">
+      <c r="B102" s="3" t="n">
         <v>43888</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -3170,7 +3156,7 @@
       <c r="A103" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B103" s="5" t="n">
+      <c r="B103" s="3" t="n">
         <v>43888</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -3225,22 +3211,22 @@
       <c r="B106" s="3" t="n">
         <v>43895</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="G106" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H106" s="6" t="n">
+      <c r="H106" s="5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3326,7 +3312,7 @@
       <c r="A110" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B110" s="5" t="n">
+      <c r="B110" s="3" t="n">
         <v>43895</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -3352,7 +3338,7 @@
       <c r="A111" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B111" s="5" t="n">
+      <c r="B111" s="3" t="n">
         <v>43895</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -3404,25 +3390,25 @@
       <c r="A114" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="7" t="n">
+      <c r="B114" s="6" t="n">
         <v>43902</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G114" s="6" t="s">
+      <c r="G114" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H114" s="6" t="n">
+      <c r="H114" s="5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3442,13 +3428,13 @@
       <c r="E115" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="F115" s="5" t="s">
         <v>54</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="6" t="s">
+      <c r="H115" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3474,7 +3460,7 @@
       <c r="G116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H116" s="6" t="s">
+      <c r="H116" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3500,7 +3486,7 @@
       <c r="G117" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H117" s="6" t="s">
+      <c r="H117" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3508,7 +3494,7 @@
       <c r="A118" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B118" s="5" t="n">
+      <c r="B118" s="3" t="n">
         <v>43902</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -3534,7 +3520,7 @@
       <c r="A119" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="5" t="n">
+      <c r="B119" s="3" t="n">
         <v>43902</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -3555,6 +3541,126 @@
       <c r="H119" s="4" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="6" t="n">
+        <v>43909</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="6" t="n">
+        <v>43909</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="6" t="n">
+        <v>43909</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" s="6" t="n">
+        <v>43909</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="6" t="n">
+        <v>43909</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" s="6" t="n">
+        <v>43909</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14">

--- a/management/organisation.xlsx
+++ b/management/organisation.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseen\Desktop\hometrics\management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1135786C-7F2C-483C-A9AF-049078A2EFB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="in" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,106 +27,106 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="104">
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week ending date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satisfactory Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deliverables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lee Donovan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirements constraints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent Chung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List of foreseen risks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohammed Yaseen Jamal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of non-functional user requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ram Attra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of functional user requirements</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Week ending date</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Satisfactory Progress</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Deliverables</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Lee Donovan</t>
+  </si>
+  <si>
+    <t>Requirements constraints</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Vincent Chung</t>
+  </si>
+  <si>
+    <t>List of foreseen risks</t>
+  </si>
+  <si>
+    <t>Risk analysis</t>
+  </si>
+  <si>
+    <t>Mohammed Yaseen Jamal</t>
+  </si>
+  <si>
+    <t>Description of non-functional user requirements</t>
+  </si>
+  <si>
+    <t>Ram Attra</t>
+  </si>
+  <si>
+    <t>Description of functional user requirements</t>
   </si>
   <si>
     <t xml:space="preserve">Completed </t>
   </si>
   <si>
-    <t xml:space="preserve">Eoghann Gibson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget breakdown (costs of each section)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incomplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Costing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troy Greenaway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which software to use and gaant chart draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongoing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Decision and Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete First Draft of Risk Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete First Draft of Requirements</t>
+    <t>Eoghann Gibson</t>
+  </si>
+  <si>
+    <t>Budget breakdown (costs of each section)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Project Costing</t>
+  </si>
+  <si>
+    <t>Troy Greenaway</t>
+  </si>
+  <si>
+    <t>Which software to use and gaant chart draft</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Project Decision and Planning</t>
+  </si>
+  <si>
+    <t>Complete First Draft of Risk Analysis</t>
+  </si>
+  <si>
+    <t>Risk Analysis</t>
+  </si>
+  <si>
+    <t>Complete First Draft of Requirements</t>
   </si>
   <si>
     <t xml:space="preserve">Rough Draft of Project Costing </t>
@@ -136,19 +141,19 @@
     <t xml:space="preserve">No </t>
   </si>
   <si>
-    <t xml:space="preserve">Usability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First draft of Project Decision and Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First draft of Risk Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First draft of Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First draft of Project Costing</t>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>First draft of Project Decision and Planning</t>
+  </si>
+  <si>
+    <t>First draft of Risk Analysis</t>
+  </si>
+  <si>
+    <t>First draft of Requirements</t>
+  </si>
+  <si>
+    <t>First draft of Project Costing</t>
   </si>
   <si>
     <t xml:space="preserve">First draft of Project Decision and Planning </t>
@@ -157,213 +162,194 @@
     <t xml:space="preserve">First draft of Project Costing </t>
   </si>
   <si>
-    <t xml:space="preserve">2nd draft of Project Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project decision and planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd draft of Risk Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd draft of Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd draft of Project Costing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete mockup design (paper)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usability evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd draft of Project planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usability survey and report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete mockups and report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalise stage 1 report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage 1 report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirements, Usability, Project Costing, Project Decision and Planning, Risk Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete usability report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usabiliity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backend side of F-UR 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-UR 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontend side of F-UR 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-UR 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backend side of F-UR 1 and database schema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontend side of F-SR 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-SR 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontend side of F-UR 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not delivered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-UR 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landing page, home internal conditions page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy breakdown page, refine register/login, and backend of energy page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontend side of F-UR 4 and device timeline page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device activity, device timeline, connect app/server energy page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER Diagram, compiling meeting notes across stage 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progress Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL Schema Script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactoring frontend, Progress Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progress report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent's chunk of Progress report &amp; Lee's ERD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix database</t>
+    <t>2nd draft of Project Planning</t>
+  </si>
+  <si>
+    <t>Project decision and planning</t>
+  </si>
+  <si>
+    <t>2nd draft of Risk Analysis</t>
+  </si>
+  <si>
+    <t>2nd draft of Requirements</t>
+  </si>
+  <si>
+    <t>2nd draft of Project Costing</t>
+  </si>
+  <si>
+    <t>Complete mockup design (paper)</t>
+  </si>
+  <si>
+    <t>Usability evaluation</t>
+  </si>
+  <si>
+    <t>2nd draft of Project planning</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Usability survey and report</t>
+  </si>
+  <si>
+    <t>Complete mockups and report</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Finalise stage 1 report</t>
+  </si>
+  <si>
+    <t>Stage 1 report</t>
+  </si>
+  <si>
+    <t>Requirements, Usability, Project Costing, Project Decision and Planning, Risk Analysis</t>
+  </si>
+  <si>
+    <t>Complete usability report</t>
+  </si>
+  <si>
+    <t>Usabiliity</t>
+  </si>
+  <si>
+    <t>Backend side of F-UR 3</t>
+  </si>
+  <si>
+    <t>F-UR 3</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Frontend side of F-UR 1</t>
+  </si>
+  <si>
+    <t>F-UR 1</t>
+  </si>
+  <si>
+    <t>Backend side of F-UR 1 and database schema</t>
+  </si>
+  <si>
+    <t>Frontend side of F-SR 1</t>
+  </si>
+  <si>
+    <t>F-SR 1</t>
+  </si>
+  <si>
+    <t>Frontend side of F-UR 3</t>
+  </si>
+  <si>
+    <t>Not delivered</t>
+  </si>
+  <si>
+    <t>F-UR 4</t>
+  </si>
+  <si>
+    <t>Landing page, home internal conditions page</t>
+  </si>
+  <si>
+    <t>Energy breakdown page, refine register/login, and backend of energy page</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Frontend side of F-UR 4 and device timeline page</t>
+  </si>
+  <si>
+    <t>Device activity, device timeline, connect app/server energy page</t>
+  </si>
+  <si>
+    <t>ER Diagram, compiling meeting notes across stage 2</t>
+  </si>
+  <si>
+    <t>Progress Report</t>
+  </si>
+  <si>
+    <t>SQL Schema Script</t>
+  </si>
+  <si>
+    <t>Refactoring frontend, Progress Report</t>
+  </si>
+  <si>
+    <t>Progress report</t>
+  </si>
+  <si>
+    <t>Vincent's chunk of Progress report &amp; Lee's ERD</t>
+  </si>
+  <si>
+    <t>Fix database</t>
   </si>
   <si>
     <t xml:space="preserve">Fix blank space </t>
   </si>
   <si>
-    <t xml:space="preserve">Frontend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Migrate Node.js server to Heroku</t>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Migrate Node.js server to Heroku</t>
   </si>
   <si>
     <t xml:space="preserve">Unit tests for energy and user. </t>
   </si>
   <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactor frontend styling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Migrate database to Heroku PostgreSQL &amp; temperature control backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete (except data migration, we are pivoting away from Heroku)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (excluding data migration work)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete full energy functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settings Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-UR 2.2, backend of F-UR 3.10 &amp; 3.11, add ActivityIndicator component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-UR 2.2, F-UR 3.10, F-UR 3.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adding modals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete backend (except Lee's assignment), Complete frontend with Vincent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI, Backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete background, finish aesthetic look of F-SR 1</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Refactor frontend styling</t>
+  </si>
+  <si>
+    <t>Migrate database to Heroku PostgreSQL &amp; temperature control backend</t>
+  </si>
+  <si>
+    <t>Complete (except data migration, we are pivoting away from Heroku)</t>
+  </si>
+  <si>
+    <t>1 (excluding data migration work)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Complete full energy functionality</t>
+  </si>
+  <si>
+    <t>Settings Page</t>
+  </si>
+  <si>
+    <t>F-UR 2.2, backend of F-UR 3.10 &amp; 3.11, add ActivityIndicator component</t>
+  </si>
+  <si>
+    <t>F-UR 2.2, F-UR 3.10, F-UR 3.11</t>
+  </si>
+  <si>
+    <t>Adding modals</t>
+  </si>
+  <si>
+    <t>Complete backend (except Lee's assignment), Complete frontend with Vincent</t>
+  </si>
+  <si>
+    <t>UI, Backend</t>
+  </si>
+  <si>
+    <t>Complete background, finish aesthetic look of F-SR 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -414,7 +400,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -422,85 +408,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Bad" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="22" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -559,276 +486,599 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H7" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:H7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:H7" totalsRowShown="0">
+  <autoFilter ref="A1:H7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table3276891011" displayName="Table3276891011" ref="A73:H79" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A73:H79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table3276891011" displayName="Table3276891011" ref="A73:H79" totalsRowShown="0">
+  <autoFilter ref="A73:H79" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table327689101112" displayName="Table327689101112" ref="A81:H87" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A81:H87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table327689101112" displayName="Table327689101112" ref="A81:H87" totalsRowShown="0">
+  <autoFilter ref="A81:H87" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table32768910111213" displayName="Table32768910111213" ref="A89:H95" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A89:H95"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table32768910111213" displayName="Table32768910111213" ref="A89:H95" totalsRowShown="0">
+  <autoFilter ref="A89:H95" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0B00-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table3276891011121314" displayName="Table3276891011121314" ref="A97:H103" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A97:H103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table3276891011121314" displayName="Table3276891011121314" ref="A97:H103" totalsRowShown="0">
+  <autoFilter ref="A97:H103" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table327689101112131415" displayName="Table327689101112131415" ref="A105:H111" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A105:H111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table327689101112131415" displayName="Table327689101112131415" ref="A105:H111" totalsRowShown="0">
+  <autoFilter ref="A105:H111" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table32768910111213141517" displayName="Table32768910111213141517" ref="A113:H119" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A113:H119"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table32768910111213141517" displayName="Table32768910111213141517" ref="A113:H119" totalsRowShown="0">
+  <autoFilter ref="A113:H119" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0E00-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A9:H15" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A9:H15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A9:H15" totalsRowShown="0">
+  <autoFilter ref="A9:H15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table32" displayName="Table32" ref="A17:H23" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A17:H23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table32" displayName="Table32" ref="A17:H23" totalsRowShown="0">
+  <autoFilter ref="A17:H23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table325" displayName="Table325" ref="A25:H31" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A25:H31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table325" displayName="Table325" ref="A25:H31" totalsRowShown="0">
+  <autoFilter ref="A25:H31" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table327" displayName="Table327" ref="A33:H39" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A33:H39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table327" displayName="Table327" ref="A33:H39" totalsRowShown="0">
+  <autoFilter ref="A33:H39" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table3276" displayName="Table3276" ref="A41:H47" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A41:H47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table3276" displayName="Table3276" ref="A41:H47" totalsRowShown="0">
+  <autoFilter ref="A41:H47" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table32768" displayName="Table32768" ref="A49:H55" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A49:H55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table32768" displayName="Table32768" ref="A49:H55" totalsRowShown="0">
+  <autoFilter ref="A49:H55" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table327689" displayName="Table327689" ref="A57:H63" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A57:H63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table327689" displayName="Table327689" ref="A57:H63" totalsRowShown="0">
+  <autoFilter ref="A57:H63" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table32768910" displayName="Table32768910" ref="A65:H71" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A65:H71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table32768910" displayName="Table32768910" ref="A65:H71" totalsRowShown="0">
+  <autoFilter ref="A65:H71" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Week ending date"/>
-    <tableColumn id="3" name="Objective"/>
-    <tableColumn id="4" name="Satisfactory Progress"/>
-    <tableColumn id="5" name="Progress"/>
-    <tableColumn id="6" name="Deliverables"/>
-    <tableColumn id="7" name="Dependencies"/>
-    <tableColumn id="8" name="Hours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Week ending date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Objective"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Satisfactory Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Progress"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Deliverables"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Dependencies"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Hours"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="103" zoomScaleNormal="103" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="57.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" customWidth="1"/>
+    <col min="9" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,11 +1104,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="3">
         <v>43756</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -876,15 +1126,15 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="3">
         <v>43756</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -902,15 +1152,15 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="3">
         <v>43756</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -928,15 +1178,15 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>43756</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -954,15 +1204,15 @@
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>43756</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -980,15 +1230,15 @@
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>43756</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1006,11 +1256,11 @@
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,11 +1286,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="3">
         <v>43763</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1058,15 +1308,15 @@
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="3">
         <v>43763</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1084,15 +1334,15 @@
       <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="3">
         <v>43763</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1110,15 +1360,15 @@
       <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="3">
         <v>43763</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1136,15 +1386,15 @@
       <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="5">
         <v>43763</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1162,15 +1412,15 @@
       <c r="G14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="5">
         <v>43763</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1188,11 +1438,11 @@
       <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,11 +1468,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="3">
         <v>43770</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1240,15 +1490,15 @@
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="3">
         <v>43770</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1266,15 +1516,15 @@
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="3">
         <v>43770</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1292,15 +1542,15 @@
       <c r="G20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="3">
         <v>43770</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1318,15 +1568,15 @@
       <c r="G21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="5">
         <v>43770</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1344,15 +1594,15 @@
       <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="5">
         <v>43770</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1370,11 +1620,11 @@
       <c r="G23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1400,11 +1650,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="3">
         <v>43777</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1422,15 +1672,15 @@
       <c r="G26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="3">
         <v>43777</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1448,15 +1698,15 @@
       <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="3">
         <v>43777</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1474,15 +1724,15 @@
       <c r="G28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="3">
         <v>43777</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1500,15 +1750,15 @@
       <c r="G29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="5">
         <v>43777</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1526,15 +1776,15 @@
       <c r="G30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="5">
         <v>43777</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1552,11 +1802,11 @@
       <c r="G31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1582,11 +1832,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="3">
         <v>43784</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1604,15 +1854,15 @@
       <c r="G34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="3">
         <v>43784</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1630,15 +1880,15 @@
       <c r="G35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="3">
         <v>43784</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1656,15 +1906,15 @@
       <c r="G36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="3">
         <v>43784</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1682,15 +1932,15 @@
       <c r="G37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="3">
         <v>43784</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1708,15 +1958,15 @@
       <c r="G38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="5" t="n">
+      <c r="B39" s="5">
         <v>43784</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -1734,11 +1984,11 @@
       <c r="G39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1764,11 +2014,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="3">
         <v>43791</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1786,15 +2036,15 @@
       <c r="G42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="3">
         <v>43791</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1816,11 +2066,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="3">
         <v>43791</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1838,15 +2088,15 @@
       <c r="G44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="3">
         <v>43791</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1868,11 +2118,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="3">
         <v>43791</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1894,11 +2144,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="5" t="n">
+      <c r="B47" s="5">
         <v>43791</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -1918,7 +2168,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -1944,11 +2194,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="3">
         <v>43798</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1966,15 +2216,15 @@
       <c r="G50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="3">
         <v>43798</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1992,15 +2242,15 @@
       <c r="G51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="3">
         <v>43798</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2018,15 +2268,15 @@
       <c r="G52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="3">
         <v>43798</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2048,11 +2298,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="3">
         <v>43798</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2074,11 +2324,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="5" t="n">
+      <c r="B55" s="5">
         <v>43798</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2096,11 +2346,11 @@
       <c r="G55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -2126,11 +2376,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="3">
         <v>43853</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2148,15 +2398,15 @@
       <c r="G58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="3">
         <v>43853</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2174,15 +2424,15 @@
       <c r="G59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="3">
         <v>43853</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2200,15 +2450,15 @@
       <c r="G60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="3">
         <v>43853</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2226,15 +2476,15 @@
       <c r="G61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="2" t="n">
+      <c r="H61" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="5" t="n">
+      <c r="B62" s="5">
         <v>43853</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -2252,15 +2502,15 @@
       <c r="G62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="5" t="n">
+      <c r="B63" s="5">
         <v>43884</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -2278,11 +2528,11 @@
       <c r="G63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -2308,11 +2558,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="3">
         <v>43860</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2330,15 +2580,15 @@
       <c r="G66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H66" s="2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="3">
         <v>43860</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2356,15 +2606,15 @@
       <c r="G67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="2" t="n">
+      <c r="H67" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="3">
         <v>43860</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2382,15 +2632,15 @@
       <c r="G68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="2" t="n">
+      <c r="H68" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="3">
         <v>43860</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2408,15 +2658,15 @@
       <c r="G69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H69" s="2" t="n">
+      <c r="H69" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="5" t="n">
+      <c r="B70" s="5">
         <v>43860</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -2434,15 +2684,15 @@
       <c r="G70" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B71" s="5" t="n">
+      <c r="B71" s="5">
         <v>43860</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -2460,11 +2710,11 @@
       <c r="G71" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H71" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2490,11 +2740,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="3">
         <v>43864</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2512,15 +2762,15 @@
       <c r="G74" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H74" s="2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="3">
         <v>43864</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2538,15 +2788,15 @@
       <c r="G75" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="2" t="n">
+      <c r="H75" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="3">
         <v>43864</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2564,15 +2814,15 @@
       <c r="G76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="2" t="n">
+      <c r="H76" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="3">
         <v>43864</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2590,15 +2840,15 @@
       <c r="G77" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H77" s="2" t="n">
+      <c r="H77" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="5" t="n">
+      <c r="B78" s="5">
         <v>43864</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -2616,15 +2866,15 @@
       <c r="G78" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="5" t="n">
+      <c r="B79" s="5">
         <v>43864</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -2642,11 +2892,11 @@
       <c r="G79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -2672,11 +2922,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="3">
         <v>43874</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2694,15 +2944,15 @@
       <c r="G82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H82" s="2" t="n">
+      <c r="H82" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="3">
         <v>43874</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2720,15 +2970,15 @@
       <c r="G83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="2" t="n">
+      <c r="H83" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="3">
         <v>43874</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2746,15 +2996,15 @@
       <c r="G84" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H84" s="2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H84" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="3">
         <v>43874</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2772,15 +3022,15 @@
       <c r="G85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H85" s="2" t="n">
+      <c r="H85" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="5" t="n">
+      <c r="B86" s="5">
         <v>43874</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -2798,15 +3048,15 @@
       <c r="G86" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="5" t="n">
+      <c r="B87" s="5">
         <v>43874</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -2824,11 +3074,11 @@
       <c r="G87" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -2854,11 +3104,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="3">
         <v>43881</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2876,15 +3126,15 @@
       <c r="G90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H90" s="2" t="n">
+      <c r="H90" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="3">
         <v>43881</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -2902,15 +3152,15 @@
       <c r="G91" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="2" t="n">
+      <c r="H91" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="3">
         <v>43881</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -2928,15 +3178,15 @@
       <c r="G92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="2" t="n">
+      <c r="H92" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="3">
         <v>43881</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -2954,15 +3204,15 @@
       <c r="G93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H93" s="2" t="n">
+      <c r="H93" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B94" s="5" t="n">
+      <c r="B94" s="5">
         <v>43881</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -2980,15 +3230,15 @@
       <c r="G94" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="5" t="n">
+      <c r="B95" s="5">
         <v>43881</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -3006,11 +3256,11 @@
       <c r="G95" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H95" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -3036,14 +3286,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="7" t="n">
+      <c r="B98" s="7">
         <v>43888</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>89</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -3052,21 +3302,21 @@
       <c r="E98" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" t="s">
         <v>76</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H98" s="6" t="n">
+      <c r="H98" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="3">
         <v>43888</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3084,15 +3334,15 @@
       <c r="G99" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="2" t="n">
+      <c r="H99" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="3">
         <v>43888</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -3114,11 +3364,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="3">
         <v>43888</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -3136,15 +3386,15 @@
       <c r="G101" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="2" t="n">
+      <c r="H101" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B102" s="5" t="n">
+      <c r="B102" s="5">
         <v>43888</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -3162,15 +3412,15 @@
       <c r="G102" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H102" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B103" s="5" t="n">
+      <c r="B103" s="5">
         <v>43888</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -3188,11 +3438,11 @@
       <c r="G103" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H103" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -3218,11 +3468,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="3">
         <v>43895</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -3240,15 +3490,15 @@
       <c r="G106" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H106" s="6" t="n">
+      <c r="H106" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="3">
         <v>43895</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -3266,15 +3516,15 @@
       <c r="G107" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="2" t="n">
+      <c r="H107" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="3">
         <v>43895</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -3292,15 +3542,15 @@
       <c r="G108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="2" t="n">
+      <c r="H108" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="3">
         <v>43895</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -3318,15 +3568,15 @@
       <c r="G109" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="2" t="n">
+      <c r="H109" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B110" s="5" t="n">
+      <c r="B110" s="5">
         <v>43895</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -3344,15 +3594,15 @@
       <c r="G110" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H110" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B111" s="5" t="n">
+      <c r="B111" s="5">
         <v>43895</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -3370,11 +3620,11 @@
       <c r="G111" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H111" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -3400,18 +3650,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="7" t="n">
+      <c r="B114" s="7">
         <v>43902</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>29</v>
@@ -3422,15 +3672,15 @@
       <c r="G114" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H114" s="6" t="n">
+      <c r="H114" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="3">
         <v>43902</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -3452,11 +3702,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="3">
         <v>43902</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -3478,11 +3728,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="3">
         <v>43902</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -3504,11 +3754,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B118" s="5" t="n">
+      <c r="B118" s="5">
         <v>43902</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -3526,15 +3776,15 @@
       <c r="G118" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H118" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="5" t="n">
+      <c r="B119" s="5">
         <v>43902</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -3552,7 +3802,7 @@
       <c r="G119" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H119" s="4" t="n">
+      <c r="H119" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3560,21 +3810,16 @@
   <conditionalFormatting sqref="F14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="15">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
